--- a/document/test.xlsx
+++ b/document/test.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knmrmst/Documents/workspace-spring-tool-suite/ex-bbs-system/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knmrmst/Documents/workspace-spring-tool-suite/ex-bbs/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6481565E-71D3-5C4F-8745-23AEFA79BB55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A219647-E1ED-7648-AA64-621A17CD0C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16240" xr2:uid="{D8D20FB2-4E87-BF46-8B36-FFA935C8473F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{D8D20FB2-4E87-BF46-8B36-FFA935C8473F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +25,286 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+  <si>
+    <t>球団情報システム機能テスト仕様書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金森聖人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="1">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前条件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト実施者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト実施日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検証結果（○/×）</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事一覧を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事を投稿する</t>
+    <rPh sb="0" eb="1">
+      <t>キジヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントを投稿する</t>
+    <rPh sb="0" eb="2">
+      <t>ヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事とコメントを削除する</t>
+    <rPh sb="0" eb="1">
+      <t>キジト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板システムにアクセスした際に正しく記事一覧画面が表示されることの確認</t>
+    <rPh sb="0" eb="1">
+      <t>タダシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトURLにアクセスする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに記事とコメントの情報が登録されていること</t>
+    <rPh sb="0" eb="2">
+      <t>キジト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事投稿のフォームが表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事削除ボタンを押したときに記事とコメントが削除されることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>キジト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・記事一覧画面が表示されていること
+・データベースに記事とコメントの情報が登録されていること</t>
+    <rPh sb="37" eb="38">
+      <t>タダシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームに記事を入力して投稿すると記事一覧にその内容が反映されることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>キジヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれの記事に対してついているコメントが表示されることの確認</t>
+    <rPh sb="0" eb="1">
+      <t>タイシテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント投稿フォームにコメントを入力して投稿すると、コメントした記事にその内容が反映されることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事投稿フォームに「テスト者名」「テスト投稿です」と入力し、投稿ボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>キジトウコウフォームニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに記事とコメントの情報が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一番上の記事が「山田」さんの「新しい投稿です」であること
+・次の記事が「伊賀」さんの「この掲⽰示板につい て」であること</t>
+    <rPh sb="0" eb="1">
+      <t>イチバンウエノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「山田」さんの「新たな投稿です」に「吉田」さんの「山田さんの書き込みコメント１〜２」が表示されていること</t>
+    <rPh sb="0" eb="1">
+      <t>・</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「伊賀」さんの「この掲示板について」に「佐藤」さんの「伊賀さんの書き込みコメント１〜３が表示されていること」</t>
+    <rPh sb="0" eb="1">
+      <t>イガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・記事一覧画面が表示されていること
+・データベースに記事とコメントの情報が登録されていること
+・記事に対してコメントが正しく表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト投稿した記事のコメント欄に入力した内容が表示されることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>キジノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト投稿した記事のコメント欄で一番上に投稿したコメントが表示されること</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">トウコウシタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト投稿の記事削除ボタンを押す</t>
+    <rPh sb="0" eb="4">
+      <t>キジサクジョボタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・テスト投稿の記事とコメントが表示されなくなること。
+・データベースからも削除ボタンを押した記事とコメントの情報が削除されていること</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョシタキジト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テストトウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>No3でテスト投稿した記事のコメントフォームに「テスト者3」「コメントテストです」と入力してコメント投稿ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>キジニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No3でテスト投稿した記事のコメントフォームに「テスト者4」「コメントテスト２です」と入力してコメント投稿ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>キジニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事投稿フォームに「テスト者名２」「テスト投稿２です」と入力し、投稿ボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>キジトウコウフォームニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力した内容が記事一覧に反映されていること
+・投稿した記事が一番上に表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>ジブンガナイヨウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースの記事とコメントの情報が登録されていないこと</t>
+    <rPh sb="0" eb="2">
+      <t>キジト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事は表示されておらす、記事投稿フォームのみが表示されること</t>
+    <rPh sb="0" eb="1">
+      <t>キジハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,16 +320,51 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴシック W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴシック W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,18 +372,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,13 +763,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B847DD68-0D93-9C4C-B449-483DF46E1C5B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="6"/>
+    <col min="2" max="2" width="25.5703125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="25.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="5"/>
+    <col min="11" max="11" width="11.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="43.85546875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="10.7109375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="20">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="16">
+        <v>43616</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="38">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="57" customHeight="1">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="114">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="38">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="76" customHeight="1">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="57">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="76">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="76">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="114" customHeight="1">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="76">
+      <c r="A12" s="10">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="95">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E4:E6" r:id="rId1" display="さいとURLにアクセスする" xr:uid="{2F9BB0F6-9FAA-8D4D-8B34-FFECE0B711A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/test.xlsx
+++ b/document/test.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knmrmst/Documents/workspace-spring-tool-suite/ex-bbs/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A219647-E1ED-7648-AA64-621A17CD0C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058BF0C7-CA26-8C40-95DE-088CBBE591AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{D8D20FB2-4E87-BF46-8B36-FFA935C8473F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{D8D20FB2-4E87-BF46-8B36-FFA935C8473F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
-    <t>球団情報システム機能テスト仕様書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成者</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -297,6 +292,10 @@
     <rPh sb="0" eb="1">
       <t>キジハ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板システム機能テスト仕様書</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,19 +432,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B847DD68-0D93-9C4C-B449-483DF46E1C5B}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -785,88 +784,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="20">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="20">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="H2" s="14">
         <v>43616</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="13"/>
       <c r="K2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="38">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" ht="57" customHeight="1">
       <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>18</v>
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -876,14 +875,14 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="16"/>
       <c r="F5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -893,12 +892,12 @@
       <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -908,20 +907,20 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -931,13 +930,13 @@
       <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -946,20 +945,20 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>20</v>
+      <c r="B9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -969,12 +968,12 @@
       <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -984,20 +983,20 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1007,14 +1006,14 @@
       <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1025,19 +1024,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1050,11 +1049,18 @@
     </row>
     <row r="16" spans="1:12" ht="19">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
@@ -1063,13 +1069,6 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
